--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sertad1-Ar.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sertad1-Ar.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.1200302855793</v>
+        <v>14.75986366666667</v>
       </c>
       <c r="H2">
-        <v>14.1200302855793</v>
+        <v>44.279591</v>
       </c>
       <c r="I2">
-        <v>0.2109813753836423</v>
+        <v>0.2069066005118911</v>
       </c>
       <c r="J2">
-        <v>0.2109813753836423</v>
+        <v>0.2199725985531551</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.763267182716851</v>
+        <v>0.7727323333333332</v>
       </c>
       <c r="N2">
-        <v>0.763267182716851</v>
+        <v>2.318197</v>
       </c>
       <c r="O2">
-        <v>0.08764472679458059</v>
+        <v>0.08417634149364144</v>
       </c>
       <c r="P2">
-        <v>0.08764472679458059</v>
+        <v>0.09406687683971243</v>
       </c>
       <c r="Q2">
-        <v>10.77735573595073</v>
+        <v>11.40542389082522</v>
       </c>
       <c r="R2">
-        <v>10.77735573595073</v>
+        <v>102.648815017427</v>
       </c>
       <c r="S2">
-        <v>0.01849140500424418</v>
+        <v>0.01741664066197739</v>
       </c>
       <c r="T2">
-        <v>0.01849140500424418</v>
+        <v>0.02069213533621114</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.1200302855793</v>
+        <v>14.75986366666667</v>
       </c>
       <c r="H3">
-        <v>14.1200302855793</v>
+        <v>44.279591</v>
       </c>
       <c r="I3">
-        <v>0.2109813753836423</v>
+        <v>0.2069066005118911</v>
       </c>
       <c r="J3">
-        <v>0.2109813753836423</v>
+        <v>0.2199725985531551</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.22895192857307</v>
+        <v>5.511558666666666</v>
       </c>
       <c r="N3">
-        <v>5.22895192857307</v>
+        <v>16.534676</v>
       </c>
       <c r="O3">
-        <v>0.6004320290183284</v>
+        <v>0.6003926902945337</v>
       </c>
       <c r="P3">
-        <v>0.6004320290183284</v>
+        <v>0.6709375134540114</v>
       </c>
       <c r="Q3">
-        <v>73.83295959329004</v>
+        <v>81.3498545108351</v>
       </c>
       <c r="R3">
-        <v>73.83295959329004</v>
+        <v>732.1486905975158</v>
       </c>
       <c r="S3">
-        <v>0.1266799753066779</v>
+        <v>0.1242252105210306</v>
       </c>
       <c r="T3">
-        <v>0.1266799753066779</v>
+        <v>0.1475878683012713</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.1200302855793</v>
+        <v>14.75986366666667</v>
       </c>
       <c r="H4">
-        <v>14.1200302855793</v>
+        <v>44.279591</v>
       </c>
       <c r="I4">
-        <v>0.2109813753836423</v>
+        <v>0.2069066005118911</v>
       </c>
       <c r="J4">
-        <v>0.2109813753836423</v>
+        <v>0.2199725985531551</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.71643012103385</v>
+        <v>2.895632</v>
       </c>
       <c r="N4">
-        <v>2.71643012103385</v>
+        <v>5.791264</v>
       </c>
       <c r="O4">
-        <v>0.3119232441870909</v>
+        <v>0.3154309682118249</v>
       </c>
       <c r="P4">
-        <v>0.3119232441870909</v>
+        <v>0.2349956097062763</v>
       </c>
       <c r="Q4">
-        <v>38.3560755776578</v>
+        <v>42.73913354883733</v>
       </c>
       <c r="R4">
-        <v>38.3560755776578</v>
+        <v>256.434801293024</v>
       </c>
       <c r="S4">
-        <v>0.06580999507272015</v>
+        <v>0.06526474932888307</v>
       </c>
       <c r="T4">
-        <v>0.06580999507272015</v>
+        <v>0.05169259491567262</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.6195030969234</v>
+        <v>10.98286</v>
       </c>
       <c r="H5">
-        <v>10.6195030969234</v>
+        <v>32.94858</v>
       </c>
       <c r="I5">
-        <v>0.1586765271720397</v>
+        <v>0.1539598385065048</v>
       </c>
       <c r="J5">
-        <v>0.1586765271720397</v>
+        <v>0.1636822878792289</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.763267182716851</v>
+        <v>0.7727323333333332</v>
       </c>
       <c r="N5">
-        <v>0.763267182716851</v>
+        <v>2.318197</v>
       </c>
       <c r="O5">
-        <v>0.08764472679458059</v>
+        <v>0.08417634149364144</v>
       </c>
       <c r="P5">
-        <v>0.08764472679458059</v>
+        <v>0.09406687683971243</v>
       </c>
       <c r="Q5">
-        <v>8.105518210641598</v>
+        <v>8.486811034473332</v>
       </c>
       <c r="R5">
-        <v>8.105518210641598</v>
+        <v>76.38129931025999</v>
       </c>
       <c r="S5">
-        <v>0.01390716087270626</v>
+        <v>0.01295977594242943</v>
       </c>
       <c r="T5">
-        <v>0.01390716087270626</v>
+        <v>0.01539708161477778</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.6195030969234</v>
+        <v>10.98286</v>
       </c>
       <c r="H6">
-        <v>10.6195030969234</v>
+        <v>32.94858</v>
       </c>
       <c r="I6">
-        <v>0.1586765271720397</v>
+        <v>0.1539598385065048</v>
       </c>
       <c r="J6">
-        <v>0.1586765271720397</v>
+        <v>0.1636822878792289</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.22895192857307</v>
+        <v>5.511558666666666</v>
       </c>
       <c r="N6">
-        <v>5.22895192857307</v>
+        <v>16.534676</v>
       </c>
       <c r="O6">
-        <v>0.6004320290183284</v>
+        <v>0.6003926902945337</v>
       </c>
       <c r="P6">
-        <v>0.6004320290183284</v>
+        <v>0.6709375134540114</v>
       </c>
       <c r="Q6">
-        <v>55.52887119914531</v>
+        <v>60.53267721778666</v>
       </c>
       <c r="R6">
-        <v>55.52887119914531</v>
+        <v>544.7940949600799</v>
       </c>
       <c r="S6">
-        <v>0.09527446916748973</v>
+        <v>0.09243636163823235</v>
       </c>
       <c r="T6">
-        <v>0.09527446916748973</v>
+        <v>0.1098205872261535</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.6195030969234</v>
+        <v>10.98286</v>
       </c>
       <c r="H7">
-        <v>10.6195030969234</v>
+        <v>32.94858</v>
       </c>
       <c r="I7">
-        <v>0.1586765271720397</v>
+        <v>0.1539598385065048</v>
       </c>
       <c r="J7">
-        <v>0.1586765271720397</v>
+        <v>0.1636822878792289</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.71643012103385</v>
+        <v>2.895632</v>
       </c>
       <c r="N7">
-        <v>2.71643012103385</v>
+        <v>5.791264</v>
       </c>
       <c r="O7">
-        <v>0.3119232441870909</v>
+        <v>0.3154309682118249</v>
       </c>
       <c r="P7">
-        <v>0.3119232441870909</v>
+        <v>0.2349956097062763</v>
       </c>
       <c r="Q7">
-        <v>28.84713808289498</v>
+        <v>31.80232086752</v>
       </c>
       <c r="R7">
-        <v>28.84713808289498</v>
+        <v>190.81392520512</v>
       </c>
       <c r="S7">
-        <v>0.04949489713184372</v>
+        <v>0.04856370092584301</v>
       </c>
       <c r="T7">
-        <v>0.04949489713184372</v>
+        <v>0.03846461903829763</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.2065187723044</v>
+        <v>15.43916166666667</v>
       </c>
       <c r="H8">
-        <v>12.2065187723044</v>
+        <v>46.317485</v>
       </c>
       <c r="I8">
-        <v>0.1823897022272833</v>
+        <v>0.2164291301970361</v>
       </c>
       <c r="J8">
-        <v>0.1823897022272833</v>
+        <v>0.2300964689104012</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.763267182716851</v>
+        <v>0.7727323333333332</v>
       </c>
       <c r="N8">
-        <v>0.763267182716851</v>
+        <v>2.318197</v>
       </c>
       <c r="O8">
-        <v>0.08764472679458059</v>
+        <v>0.08417634149364144</v>
       </c>
       <c r="P8">
-        <v>0.08764472679458059</v>
+        <v>0.09406687683971243</v>
       </c>
       <c r="Q8">
-        <v>9.316835194117136</v>
+        <v>11.93033941939389</v>
       </c>
       <c r="R8">
-        <v>9.316835194117136</v>
+        <v>107.373054774545</v>
       </c>
       <c r="S8">
-        <v>0.01598549562185516</v>
+        <v>0.01821821237263749</v>
       </c>
       <c r="T8">
-        <v>0.01598549562185516</v>
+        <v>0.02164445620224743</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.2065187723044</v>
+        <v>15.43916166666667</v>
       </c>
       <c r="H9">
-        <v>12.2065187723044</v>
+        <v>46.317485</v>
       </c>
       <c r="I9">
-        <v>0.1823897022272833</v>
+        <v>0.2164291301970361</v>
       </c>
       <c r="J9">
-        <v>0.1823897022272833</v>
+        <v>0.2300964689104012</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.22895192857307</v>
+        <v>5.511558666666666</v>
       </c>
       <c r="N9">
-        <v>5.22895192857307</v>
+        <v>16.534676</v>
       </c>
       <c r="O9">
-        <v>0.6004320290183284</v>
+        <v>0.6003926902945337</v>
       </c>
       <c r="P9">
-        <v>0.6004320290183284</v>
+        <v>0.6709375134540114</v>
       </c>
       <c r="Q9">
-        <v>63.82729987560448</v>
+        <v>85.09384528998443</v>
       </c>
       <c r="R9">
-        <v>63.82729987560448</v>
+        <v>765.8446076098598</v>
       </c>
       <c r="S9">
-        <v>0.1095126189803765</v>
+        <v>0.1299424677371044</v>
       </c>
       <c r="T9">
-        <v>0.1095126189803765</v>
+        <v>0.1543803527052929</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.2065187723044</v>
+        <v>15.43916166666667</v>
       </c>
       <c r="H10">
-        <v>12.2065187723044</v>
+        <v>46.317485</v>
       </c>
       <c r="I10">
-        <v>0.1823897022272833</v>
+        <v>0.2164291301970361</v>
       </c>
       <c r="J10">
-        <v>0.1823897022272833</v>
+        <v>0.2300964689104012</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.71643012103385</v>
+        <v>2.895632</v>
       </c>
       <c r="N10">
-        <v>2.71643012103385</v>
+        <v>5.791264</v>
       </c>
       <c r="O10">
-        <v>0.3119232441870909</v>
+        <v>0.3154309682118249</v>
       </c>
       <c r="P10">
-        <v>0.3119232441870909</v>
+        <v>0.2349956097062763</v>
       </c>
       <c r="Q10">
-        <v>33.1581552660528</v>
+        <v>44.70613057517333</v>
       </c>
       <c r="R10">
-        <v>33.1581552660528</v>
+        <v>268.23678345104</v>
       </c>
       <c r="S10">
-        <v>0.05689158762505171</v>
+        <v>0.06826845008729419</v>
       </c>
       <c r="T10">
-        <v>0.05689158762505171</v>
+        <v>0.05407166000286098</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.328625018854</v>
+        <v>17.442302</v>
       </c>
       <c r="H11">
-        <v>17.328625018854</v>
+        <v>52.326906</v>
       </c>
       <c r="I11">
-        <v>0.2589241712688874</v>
+        <v>0.2445095356857582</v>
       </c>
       <c r="J11">
-        <v>0.2589241712688874</v>
+        <v>0.2599501311352827</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.763267182716851</v>
+        <v>0.7727323333333332</v>
       </c>
       <c r="N11">
-        <v>0.763267182716851</v>
+        <v>2.318197</v>
       </c>
       <c r="O11">
-        <v>0.08764472679458059</v>
+        <v>0.08417634149364144</v>
       </c>
       <c r="P11">
-        <v>0.08764472679458059</v>
+        <v>0.09406687683971243</v>
       </c>
       <c r="Q11">
-        <v>13.22637079849743</v>
+        <v>13.47823072316467</v>
       </c>
       <c r="R11">
-        <v>13.22637079849743</v>
+        <v>121.304076508482</v>
       </c>
       <c r="S11">
-        <v>0.02269333825137483</v>
+        <v>0.02058191817433609</v>
       </c>
       <c r="T11">
-        <v>0.02269333825137483</v>
+        <v>0.02445269696996973</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.328625018854</v>
+        <v>17.442302</v>
       </c>
       <c r="H12">
-        <v>17.328625018854</v>
+        <v>52.326906</v>
       </c>
       <c r="I12">
-        <v>0.2589241712688874</v>
+        <v>0.2445095356857582</v>
       </c>
       <c r="J12">
-        <v>0.2589241712688874</v>
+        <v>0.2599501311352827</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.22895192857307</v>
+        <v>5.511558666666666</v>
       </c>
       <c r="N12">
-        <v>5.22895192857307</v>
+        <v>16.534676</v>
       </c>
       <c r="O12">
-        <v>0.6004320290183284</v>
+        <v>0.6003926902945337</v>
       </c>
       <c r="P12">
-        <v>0.6004320290183284</v>
+        <v>0.6709375134540114</v>
       </c>
       <c r="Q12">
-        <v>90.61054721185619</v>
+        <v>96.13427075471732</v>
       </c>
       <c r="R12">
-        <v>90.61054721185619</v>
+        <v>865.2084367924559</v>
       </c>
       <c r="S12">
-        <v>0.1554663655168672</v>
+        <v>0.1468017379330396</v>
       </c>
       <c r="T12">
-        <v>0.1554663655168672</v>
+        <v>0.1744102946059508</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.328625018854</v>
+        <v>17.442302</v>
       </c>
       <c r="H13">
-        <v>17.328625018854</v>
+        <v>52.326906</v>
       </c>
       <c r="I13">
-        <v>0.2589241712688874</v>
+        <v>0.2445095356857582</v>
       </c>
       <c r="J13">
-        <v>0.2589241712688874</v>
+        <v>0.2599501311352827</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.71643012103385</v>
+        <v>2.895632</v>
       </c>
       <c r="N13">
-        <v>2.71643012103385</v>
+        <v>5.791264</v>
       </c>
       <c r="O13">
-        <v>0.3119232441870909</v>
+        <v>0.3154309682118249</v>
       </c>
       <c r="P13">
-        <v>0.3119232441870909</v>
+        <v>0.2349956097062763</v>
       </c>
       <c r="Q13">
-        <v>47.07199895731578</v>
+        <v>50.506487824864</v>
       </c>
       <c r="R13">
-        <v>47.07199895731578</v>
+        <v>303.038926949184</v>
       </c>
       <c r="S13">
-        <v>0.08076446750064532</v>
+        <v>0.07712587957838246</v>
       </c>
       <c r="T13">
-        <v>0.08076446750064532</v>
+        <v>0.06108713955936222</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.6508050396568</v>
+        <v>12.711689</v>
       </c>
       <c r="H14">
-        <v>12.6508050396568</v>
+        <v>25.423378</v>
       </c>
       <c r="I14">
-        <v>0.1890282239481472</v>
+        <v>0.1781948950988097</v>
       </c>
       <c r="J14">
-        <v>0.1890282239481472</v>
+        <v>0.1262985135219319</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.763267182716851</v>
+        <v>0.7727323333333332</v>
       </c>
       <c r="N14">
-        <v>0.763267182716851</v>
+        <v>2.318197</v>
       </c>
       <c r="O14">
-        <v>0.08764472679458059</v>
+        <v>0.08417634149364144</v>
       </c>
       <c r="P14">
-        <v>0.08764472679458059</v>
+        <v>0.09406687683971243</v>
       </c>
       <c r="Q14">
-        <v>9.655944321718987</v>
+        <v>9.822733101577665</v>
       </c>
       <c r="R14">
-        <v>9.655944321718987</v>
+        <v>58.93639860946599</v>
       </c>
       <c r="S14">
-        <v>0.01656732704440016</v>
+        <v>0.01499979434226102</v>
       </c>
       <c r="T14">
-        <v>0.01656732704440016</v>
+        <v>0.01188050671650633</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.6508050396568</v>
+        <v>12.711689</v>
       </c>
       <c r="H15">
-        <v>12.6508050396568</v>
+        <v>25.423378</v>
       </c>
       <c r="I15">
-        <v>0.1890282239481472</v>
+        <v>0.1781948950988097</v>
       </c>
       <c r="J15">
-        <v>0.1890282239481472</v>
+        <v>0.1262985135219319</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.22895192857307</v>
+        <v>5.511558666666666</v>
       </c>
       <c r="N15">
-        <v>5.22895192857307</v>
+        <v>16.534676</v>
       </c>
       <c r="O15">
-        <v>0.6004320290183284</v>
+        <v>0.6003926902945337</v>
       </c>
       <c r="P15">
-        <v>0.6004320290183284</v>
+        <v>0.6709375134540114</v>
       </c>
       <c r="Q15">
-        <v>66.15045141011535</v>
+        <v>70.06121967592132</v>
       </c>
       <c r="R15">
-        <v>66.15045141011535</v>
+        <v>420.3673180555279</v>
       </c>
       <c r="S15">
-        <v>0.113498600046917</v>
+        <v>0.1069869124651266</v>
       </c>
       <c r="T15">
-        <v>0.113498600046917</v>
+        <v>0.08473841061534283</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.6508050396568</v>
+        <v>12.711689</v>
       </c>
       <c r="H16">
-        <v>12.6508050396568</v>
+        <v>25.423378</v>
       </c>
       <c r="I16">
-        <v>0.1890282239481472</v>
+        <v>0.1781948950988097</v>
       </c>
       <c r="J16">
-        <v>0.1890282239481472</v>
+        <v>0.1262985135219319</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.71643012103385</v>
+        <v>2.895632</v>
       </c>
       <c r="N16">
-        <v>2.71643012103385</v>
+        <v>5.791264</v>
       </c>
       <c r="O16">
-        <v>0.3119232441870909</v>
+        <v>0.3154309682118249</v>
       </c>
       <c r="P16">
-        <v>0.3119232441870909</v>
+        <v>0.2349956097062763</v>
       </c>
       <c r="Q16">
-        <v>34.36502786505056</v>
+        <v>36.808373442448</v>
       </c>
       <c r="R16">
-        <v>34.36502786505056</v>
+        <v>147.233493769792</v>
       </c>
       <c r="S16">
-        <v>0.05896229685683003</v>
+        <v>0.05620818829142213</v>
       </c>
       <c r="T16">
-        <v>0.05896229685683003</v>
+        <v>0.02967959619008277</v>
       </c>
     </row>
   </sheetData>
